--- a/References/Selection/Selection.xlsx
+++ b/References/Selection/Selection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FCCE6C-FF7D-D34B-927A-916020190106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21DA41C-7848-6141-9368-7C73C9C8D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -307,9 +307,6 @@
     <t xml:space="preserve">Neural Models for Documents with Metadata </t>
   </si>
   <si>
-    <t xml:space="preserve">SCDV : Sparse Composite Document Vectors using soft clustering over distributional representations </t>
-  </si>
-  <si>
     <t xml:space="preserve">Automatic Phenotyping by a Seed-guided Topic Model  </t>
   </si>
   <si>
@@ -329,9 +326,6 @@
   </si>
   <si>
     <t>Adapting Topic Models using Lexical Associations with Tree Priors</t>
-  </si>
-  <si>
-    <t>An Unsupervised Neural Attention Model for Aspect Extraction</t>
   </si>
   <si>
     <t>Phrase-BERT: Improved Phrase Embeddings from BERT with an Application to Corpus Exploration</t>
@@ -785,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -985,7 +979,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -999,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1009,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1040,7 +1034,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,7 +1089,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -1110,22 +1104,22 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -1140,7 +1134,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -1150,87 +1144,77 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>30</v>
+      <c r="A37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>86</v>
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>61</v>
+      <c r="A45" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>99</v>
+      <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>62</v>
+      <c r="A49" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:A52">
-    <sortCondition ref="A50:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:A50">
+    <sortCondition ref="A48:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1242,7 +1226,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1268,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
@@ -1293,7 +1277,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -1301,7 +1285,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -1373,7 +1357,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
@@ -1416,7 +1400,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
@@ -1424,7 +1408,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1432,7 +1416,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1440,7 +1424,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1448,7 +1432,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1475,7 +1459,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -1483,7 +1467,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1491,7 +1475,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1517,7 +1501,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1530,12 +1514,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -1543,7 +1527,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>

--- a/References/Selection/Selection.xlsx
+++ b/References/Selection/Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21DA41C-7848-6141-9368-7C73C9C8D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E49CDB-FD23-E044-AC26-F3C8C12EC525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
     <t>34 papers</t>
   </si>
   <si>
-    <t>33 papers</t>
+    <t>31 papers</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,12 +429,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,7 +751,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1219,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,7 +1245,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B3" t="s">
@@ -1268,7 +1261,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B5" t="s">
@@ -1276,7 +1269,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B6" t="s">
@@ -1300,7 +1293,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
@@ -1308,7 +1301,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
@@ -1324,7 +1317,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B12" t="s">
@@ -1332,7 +1325,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B13" t="s">
@@ -1340,7 +1333,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B14" t="s">
@@ -1348,7 +1341,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B15" t="s">
@@ -1356,7 +1349,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B16" t="s">
@@ -1372,7 +1365,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B18" t="s">
@@ -1423,7 +1416,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B4" t="s">
@@ -1431,7 +1424,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B5" t="s">
@@ -1466,7 +1459,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B2" t="s">
@@ -1518,7 +1511,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B5" t="s">
@@ -1526,7 +1519,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B6" t="s">

--- a/References/Selection/Selection.xlsx
+++ b/References/Selection/Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E49CDB-FD23-E044-AC26-F3C8C12EC525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE19F042-49E4-9043-8498-22883F2BDBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -429,11 +429,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,6 +1205,9 @@
       <c r="A50" s="2" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:A50">

--- a/References/Selection/Selection.xlsx
+++ b/References/Selection/Selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE19F042-49E4-9043-8498-22883F2BDBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2854E7-2AE7-4742-842A-372B2476BDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="3" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -178,9 +178,6 @@
     <t>ECML PKDD</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival Factorization on Diffusion Networks </t>
-  </si>
-  <si>
     <t>KDD</t>
   </si>
   <si>
@@ -373,7 +370,7 @@
     <t>34 papers</t>
   </si>
   <si>
-    <t>31 papers</t>
+    <t>30 papers</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -788,7 +785,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -828,7 +825,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -843,7 +840,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -863,12 +860,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -883,12 +880,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -908,7 +905,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -918,7 +915,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
@@ -928,7 +925,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -938,7 +935,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -973,7 +970,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -989,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +1025,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,7 +1035,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,7 +1065,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -1083,62 +1080,60 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A22" s="4"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -1153,7 +1148,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -1163,51 +1158,51 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
+      <c r="A53" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:A50">
@@ -1234,7 +1229,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -1242,7 +1237,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -1250,15 +1245,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1266,31 +1261,31 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1298,7 +1293,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1306,71 +1301,71 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -1385,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD93A256-338D-8543-8ADA-696DC984E705}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1397,39 +1392,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1456,7 +1451,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -1464,7 +1459,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1472,7 +1467,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1498,12 +1493,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -1511,23 +1506,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/References/Selection/Selection.xlsx
+++ b/References/Selection/Selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2854E7-2AE7-4742-842A-372B2476BDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A6198-86B0-8E42-9FB1-4E7829B238FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="3" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -91,9 +91,6 @@
     <t>Information Sciences</t>
   </si>
   <si>
-    <t xml:space="preserve">A weakly-supervised graph-based joint sentiment topic model for multi-topic sentiment analysis </t>
-  </si>
-  <si>
     <t>Journal of Infometrics</t>
   </si>
   <si>
@@ -136,24 +133,15 @@
     <t>ACL</t>
   </si>
   <si>
-    <t xml:space="preserve">Neural Mixed Counting Models for Dispersed Topic Discovery </t>
-  </si>
-  <si>
     <t>CIKM</t>
   </si>
   <si>
     <t xml:space="preserve">One Rating to Rule Them All? Evidence of Multidimensionality in Human Assessment of Topic Labeling Quality </t>
   </si>
   <si>
-    <t xml:space="preserve">ConCET: Entity-Aware Topic Classification for Open-Domain Conversational Agents </t>
-  </si>
-  <si>
     <t>COLING</t>
   </si>
   <si>
-    <t xml:space="preserve">Community Topic: Topic model inference by consecutive word community discovery </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mining Crowdsourcing Problems from Discussion Forums of Workers </t>
   </si>
   <si>
@@ -190,12 +178,6 @@
     <t>Social media analysis by innovative hybrid algorithms with label propagation</t>
   </si>
   <si>
-    <t>Identifying impact of intrinsic factors on topic preferences in online social media: A nonparametric hierarchical Bayesian approach</t>
-  </si>
-  <si>
-    <t>Author topic model for co-occurring normal documents and short texts to explore individual user preferences</t>
-  </si>
-  <si>
     <t>Improving fitness: Mapping research priorities against societal needs on obesity</t>
   </si>
   <si>
@@ -244,15 +226,6 @@
     <t>* A topic-sensitive trust evaluation approach for users in online communities (Knowledge-based systems)</t>
   </si>
   <si>
-    <t xml:space="preserve">* A Semi-discriminative Approach for Sub-sentence Level Topic Classification on a Small Dataset </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Automatic Phenotyping by a Seed-guided Topic Model  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Neural Models for Documents with Metadata </t>
-  </si>
-  <si>
     <t xml:space="preserve">* SCDV : Sparse Composite Document Vectors using soft clustering over distributional representations </t>
   </si>
   <si>
@@ -301,12 +274,6 @@
     <t xml:space="preserve">Topically Driven Neural Language Model </t>
   </si>
   <si>
-    <t xml:space="preserve">Neural Models for Documents with Metadata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic Phenotyping by a Seed-guided Topic Model  </t>
-  </si>
-  <si>
     <t xml:space="preserve">CoRel: Seed-Guided Topical Taxonomy Construction by Concept Learning and Relation Transferring </t>
   </si>
   <si>
@@ -316,9 +283,6 @@
     <t xml:space="preserve">TaxoGen: Unsupervised Topic Taxonomy Construction by Adaptive Term Embedding and Clustering </t>
   </si>
   <si>
-    <t xml:space="preserve">A Semi-discriminative Approach for Sub-sentence Level Topic Classification on a Small Dataset </t>
-  </si>
-  <si>
     <t xml:space="preserve">Improving Deep Embedded Clustering via Learning Cluster-level Representations </t>
   </si>
   <si>
@@ -367,10 +331,13 @@
     <t>/</t>
   </si>
   <si>
-    <t>34 papers</t>
-  </si>
-  <si>
-    <t>30 papers</t>
+    <t>\</t>
+  </si>
+  <si>
+    <t>31 papers</t>
+  </si>
+  <si>
+    <t>24 papers</t>
   </si>
 </sst>
 </file>
@@ -426,12 +393,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,7 +751,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,7 +791,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -840,7 +806,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -860,12 +826,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -874,68 +840,68 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>17</v>
+      <c r="A28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>52</v>
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
+      <c r="A37" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -945,32 +911,22 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>107</v>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -986,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,216 +953,188 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
+      <c r="A5" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
+      <c r="A11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>56</v>
+      <c r="A30" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>93</v>
+      <c r="A32" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>31</v>
+      <c r="A37" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>85</v>
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
+      <c r="A43" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:A50">
-    <sortCondition ref="A48:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:A44">
+    <sortCondition ref="A42:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1215,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02908B9D-569C-0746-A15F-6DD7BD461471}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,146 +1157,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
+      <c r="A2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>68</v>
+      <c r="A3" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>70</v>
+      <c r="A5" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>103</v>
+      <c r="A7" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>71</v>
+      <c r="A8" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>77</v>
+      <c r="A14" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD93A256-338D-8543-8ADA-696DC984E705}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1392,42 +1296,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1451,26 +1355,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1493,36 +1397,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
